--- a/Code/Results/Cases/Case_1_192/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_192/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010057373170058</v>
+        <v>1.03478265776327</v>
       </c>
       <c r="D2">
-        <v>1.047448170050716</v>
+        <v>1.056439223162817</v>
       </c>
       <c r="E2">
-        <v>1.027725684616939</v>
+        <v>1.045639981478569</v>
       </c>
       <c r="F2">
-        <v>1.044796533988045</v>
+        <v>1.060715653429755</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053572912426384</v>
+        <v>1.04399115998102</v>
       </c>
       <c r="J2">
-        <v>1.031941375469547</v>
+        <v>1.03990001639786</v>
       </c>
       <c r="K2">
-        <v>1.058283804851725</v>
+        <v>1.059176931157509</v>
       </c>
       <c r="L2">
-        <v>1.038811811179167</v>
+        <v>1.048407655049973</v>
       </c>
       <c r="M2">
-        <v>1.055665160875259</v>
+        <v>1.063441677879617</v>
       </c>
       <c r="N2">
-        <v>1.014496030259664</v>
+        <v>1.017259493698236</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013653690331465</v>
+        <v>1.035558520789289</v>
       </c>
       <c r="D3">
-        <v>1.050136135770138</v>
+        <v>1.057039375262869</v>
       </c>
       <c r="E3">
-        <v>1.03061541850217</v>
+        <v>1.046311645168585</v>
       </c>
       <c r="F3">
-        <v>1.047869352722007</v>
+        <v>1.061426131592645</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054541528200369</v>
+        <v>1.044158324048745</v>
       </c>
       <c r="J3">
-        <v>1.033778937998693</v>
+        <v>1.04032003246765</v>
       </c>
       <c r="K3">
-        <v>1.060165319035558</v>
+        <v>1.059591266142113</v>
       </c>
       <c r="L3">
-        <v>1.040871000234013</v>
+        <v>1.04889116404999</v>
       </c>
       <c r="M3">
-        <v>1.057924291759414</v>
+        <v>1.063966898297183</v>
       </c>
       <c r="N3">
-        <v>1.01511508137747</v>
+        <v>1.017400035706474</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015941824361383</v>
+        <v>1.036061400031598</v>
       </c>
       <c r="D4">
-        <v>1.051848785393168</v>
+        <v>1.057428314850099</v>
       </c>
       <c r="E4">
-        <v>1.032459485563879</v>
+        <v>1.046747347663646</v>
       </c>
       <c r="F4">
-        <v>1.049829308822818</v>
+        <v>1.061886896247059</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055150280364407</v>
+        <v>1.044265713028606</v>
       </c>
       <c r="J4">
-        <v>1.034946344419998</v>
+        <v>1.040591963183721</v>
       </c>
       <c r="K4">
-        <v>1.061359261372152</v>
+        <v>1.059859270603514</v>
       </c>
       <c r="L4">
-        <v>1.042181322573684</v>
+        <v>1.049204433836831</v>
       </c>
       <c r="M4">
-        <v>1.059361352681594</v>
+        <v>1.064307111419134</v>
       </c>
       <c r="N4">
-        <v>1.015508241759602</v>
+        <v>1.017490992804391</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016894702377343</v>
+        <v>1.036273010562365</v>
       </c>
       <c r="D5">
-        <v>1.05256254678373</v>
+        <v>1.057591966819859</v>
       </c>
       <c r="E5">
-        <v>1.033228719905603</v>
+        <v>1.046930776142306</v>
       </c>
       <c r="F5">
-        <v>1.050646655005544</v>
+        <v>1.062080847906192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055401954860037</v>
+        <v>1.044310672421256</v>
       </c>
       <c r="J5">
-        <v>1.03543206473243</v>
+        <v>1.040706317938769</v>
       </c>
       <c r="K5">
-        <v>1.061855672066629</v>
+        <v>1.059971914630743</v>
       </c>
       <c r="L5">
-        <v>1.042727011970259</v>
+        <v>1.049336228344248</v>
       </c>
       <c r="M5">
-        <v>1.059959699630773</v>
+        <v>1.064450221503958</v>
       </c>
       <c r="N5">
-        <v>1.015671791521948</v>
+        <v>1.017529234747424</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017054171398377</v>
+        <v>1.036308552578637</v>
       </c>
       <c r="D6">
-        <v>1.052682028789047</v>
+        <v>1.057619452957134</v>
       </c>
       <c r="E6">
-        <v>1.033357529805787</v>
+        <v>1.04696158972713</v>
       </c>
       <c r="F6">
-        <v>1.050783507719098</v>
+        <v>1.062113427614989</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055443965062179</v>
+        <v>1.044318210314922</v>
       </c>
       <c r="J6">
-        <v>1.035513326103467</v>
+        <v>1.040725520622915</v>
       </c>
       <c r="K6">
-        <v>1.061938700844501</v>
+        <v>1.059990826543411</v>
       </c>
       <c r="L6">
-        <v>1.042818335941456</v>
+        <v>1.049358362798995</v>
       </c>
       <c r="M6">
-        <v>1.060059828711455</v>
+        <v>1.064474255219268</v>
       </c>
       <c r="N6">
-        <v>1.015699151602727</v>
+        <v>1.017535655933386</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015954591993925</v>
+        <v>1.036064226798068</v>
       </c>
       <c r="D7">
-        <v>1.051858347027379</v>
+        <v>1.057430501021356</v>
       </c>
       <c r="E7">
-        <v>1.032469787521286</v>
+        <v>1.046749797628293</v>
       </c>
       <c r="F7">
-        <v>1.049840256029152</v>
+        <v>1.061889486874058</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05515365984477</v>
+        <v>1.044266314513778</v>
       </c>
       <c r="J7">
-        <v>1.034952854356278</v>
+        <v>1.040593491061417</v>
       </c>
       <c r="K7">
-        <v>1.061365915994331</v>
+        <v>1.059860775858943</v>
       </c>
       <c r="L7">
-        <v>1.04218863425646</v>
+        <v>1.049206194506697</v>
       </c>
       <c r="M7">
-        <v>1.059369370415943</v>
+        <v>1.064309023333361</v>
       </c>
       <c r="N7">
-        <v>1.015510433886307</v>
+        <v>1.017491503781665</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011280987563306</v>
+        <v>1.035044688377481</v>
       </c>
       <c r="D8">
-        <v>1.048362184634637</v>
+        <v>1.056641921647652</v>
       </c>
       <c r="E8">
-        <v>1.028707721424055</v>
+        <v>1.045866746182823</v>
       </c>
       <c r="F8">
-        <v>1.045840985029421</v>
+        <v>1.060955546623104</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053904029716214</v>
+        <v>1.044047814313205</v>
       </c>
       <c r="J8">
-        <v>1.032566937508663</v>
+        <v>1.040041930454942</v>
       </c>
       <c r="K8">
-        <v>1.058924608833607</v>
+        <v>1.059316976936046</v>
       </c>
       <c r="L8">
-        <v>1.039512377592811</v>
+        <v>1.048570973931707</v>
       </c>
       <c r="M8">
-        <v>1.056433849493125</v>
+        <v>1.06361910288165</v>
       </c>
       <c r="N8">
-        <v>1.014706798777287</v>
+        <v>1.017306986705752</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00273497377137</v>
+        <v>1.033254681891243</v>
       </c>
       <c r="D9">
-        <v>1.04199080499529</v>
+        <v>1.055257041265797</v>
       </c>
       <c r="E9">
-        <v>1.021873473167501</v>
+        <v>1.044319145763123</v>
       </c>
       <c r="F9">
-        <v>1.038568556505615</v>
+        <v>1.059317872053371</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051561011615367</v>
+        <v>1.043656872489259</v>
       </c>
       <c r="J9">
-        <v>1.028191521355597</v>
+        <v>1.039071236424284</v>
       </c>
       <c r="K9">
-        <v>1.054437462181034</v>
+        <v>1.058358053761258</v>
       </c>
       <c r="L9">
-        <v>1.034621363963664</v>
+        <v>1.047454822118665</v>
       </c>
       <c r="M9">
-        <v>1.051065411593173</v>
+        <v>1.062406214236996</v>
       </c>
       <c r="N9">
-        <v>1.013232160358905</v>
+        <v>1.016981996322435</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9968106805641022</v>
+        <v>1.032065865491123</v>
       </c>
       <c r="D10">
-        <v>1.037591897570626</v>
+        <v>1.054337073046282</v>
       </c>
       <c r="E10">
-        <v>1.017168496404663</v>
+        <v>1.043293217352586</v>
       </c>
       <c r="F10">
-        <v>1.033557242913945</v>
+        <v>1.058231634260733</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049899654451255</v>
+        <v>1.043392316793262</v>
       </c>
       <c r="J10">
-        <v>1.025151410332508</v>
+        <v>1.03842501313363</v>
       </c>
       <c r="K10">
-        <v>1.051314043937112</v>
+        <v>1.057718409814591</v>
       </c>
       <c r="L10">
-        <v>1.031234536219973</v>
+        <v>1.046712958911728</v>
       </c>
       <c r="M10">
-        <v>1.047345938759277</v>
+        <v>1.061599638035473</v>
       </c>
       <c r="N10">
-        <v>1.012207078911291</v>
+        <v>1.016765468113919</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9941872679153473</v>
+        <v>1.031552192066767</v>
       </c>
       <c r="D11">
-        <v>1.035648960850435</v>
+        <v>1.05393952292968</v>
       </c>
       <c r="E11">
-        <v>1.01509331216569</v>
+        <v>1.042850382404515</v>
       </c>
       <c r="F11">
-        <v>1.031345891163873</v>
+        <v>1.057762625164856</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049155631373156</v>
+        <v>1.043276840268712</v>
       </c>
       <c r="J11">
-        <v>1.023803878752586</v>
+        <v>1.038145423535725</v>
       </c>
       <c r="K11">
-        <v>1.049928511693895</v>
+        <v>1.057441371352355</v>
       </c>
       <c r="L11">
-        <v>1.02973609555136</v>
+        <v>1.04639227485631</v>
       </c>
       <c r="M11">
-        <v>1.045699928952738</v>
+        <v>1.061250882629225</v>
       </c>
       <c r="N11">
-        <v>1.011752624511033</v>
+        <v>1.016671746620976</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9932036905424813</v>
+        <v>1.031361556952013</v>
       </c>
       <c r="D12">
-        <v>1.034921327614731</v>
+        <v>1.053791977844804</v>
       </c>
       <c r="E12">
-        <v>1.014316570628271</v>
+        <v>1.042686106111955</v>
       </c>
       <c r="F12">
-        <v>1.030518028680435</v>
+        <v>1.057588617819391</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048875468531975</v>
+        <v>1.043233809454741</v>
       </c>
       <c r="J12">
-        <v>1.023298493747853</v>
+        <v>1.038041607374687</v>
       </c>
       <c r="K12">
-        <v>1.049408736990206</v>
+        <v>1.057338458299776</v>
       </c>
       <c r="L12">
-        <v>1.029174533302696</v>
+        <v>1.046273242428553</v>
       </c>
       <c r="M12">
-        <v>1.045083011396708</v>
+        <v>1.061121415929637</v>
       </c>
       <c r="N12">
-        <v>1.011582172996772</v>
+        <v>1.016636940302935</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9934150906183751</v>
+        <v>1.031402441283992</v>
       </c>
       <c r="D13">
-        <v>1.035077679593346</v>
+        <v>1.053823621177185</v>
       </c>
       <c r="E13">
-        <v>1.014483456326265</v>
+        <v>1.042721334291482</v>
       </c>
       <c r="F13">
-        <v>1.030695904750992</v>
+        <v>1.057625933738641</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048935737962424</v>
+        <v>1.043243045927514</v>
       </c>
       <c r="J13">
-        <v>1.023407122974355</v>
+        <v>1.038063874648126</v>
       </c>
       <c r="K13">
-        <v>1.049520465025228</v>
+        <v>1.057360533863142</v>
       </c>
       <c r="L13">
-        <v>1.029295218395945</v>
+        <v>1.04629877146506</v>
       </c>
       <c r="M13">
-        <v>1.045215595078528</v>
+        <v>1.061149183480702</v>
       </c>
       <c r="N13">
-        <v>1.011618810887901</v>
+        <v>1.01664440609581</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9941061535688619</v>
+        <v>1.031536430709335</v>
       </c>
       <c r="D14">
-        <v>1.035588936847493</v>
+        <v>1.053927324290539</v>
       </c>
       <c r="E14">
-        <v>1.01502922873162</v>
+        <v>1.042836798931055</v>
       </c>
       <c r="F14">
-        <v>1.031277593196549</v>
+        <v>1.057748237498226</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049132551113104</v>
+        <v>1.043273286132125</v>
       </c>
       <c r="J14">
-        <v>1.02376220347594</v>
+        <v>1.038136841319713</v>
       </c>
       <c r="K14">
-        <v>1.04988565246975</v>
+        <v>1.057432864693917</v>
       </c>
       <c r="L14">
-        <v>1.029689779187674</v>
+        <v>1.046382433877525</v>
       </c>
       <c r="M14">
-        <v>1.045649048014499</v>
+        <v>1.06124017929838</v>
       </c>
       <c r="N14">
-        <v>1.01173856886802</v>
+        <v>1.016668869394163</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9945307191403917</v>
+        <v>1.031619008082278</v>
       </c>
       <c r="D15">
-        <v>1.035903145944773</v>
+        <v>1.05399123553013</v>
       </c>
       <c r="E15">
-        <v>1.015364704780601</v>
+        <v>1.042907968706097</v>
       </c>
       <c r="F15">
-        <v>1.031635126044679</v>
+        <v>1.057823619918734</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049253307729958</v>
+        <v>1.043291899900367</v>
       </c>
       <c r="J15">
-        <v>1.023980332064911</v>
+        <v>1.038181803288724</v>
       </c>
       <c r="K15">
-        <v>1.05010997236928</v>
+        <v>1.057477429011265</v>
       </c>
       <c r="L15">
-        <v>1.029932216423667</v>
+        <v>1.046433992218718</v>
       </c>
       <c r="M15">
-        <v>1.045915375887706</v>
+        <v>1.061296255028842</v>
       </c>
       <c r="N15">
-        <v>1.011812135746983</v>
+        <v>1.016683942852307</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9969835299168999</v>
+        <v>1.03209997948226</v>
       </c>
       <c r="D16">
-        <v>1.037720022281215</v>
+        <v>1.054363474228165</v>
       </c>
       <c r="E16">
-        <v>1.017305401535615</v>
+        <v>1.043322636506314</v>
       </c>
       <c r="F16">
-        <v>1.033703109723282</v>
+        <v>1.058262789261596</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049948505415815</v>
+        <v>1.043399961233795</v>
       </c>
       <c r="J16">
-        <v>1.025240170858846</v>
+        <v>1.038443573526719</v>
       </c>
       <c r="K16">
-        <v>1.05140528708401</v>
+        <v>1.057736794644069</v>
       </c>
       <c r="L16">
-        <v>1.031333295179515</v>
+        <v>1.046734253333594</v>
       </c>
       <c r="M16">
-        <v>1.047454416061463</v>
+        <v>1.061622794421574</v>
       </c>
       <c r="N16">
-        <v>1.012237011751618</v>
+        <v>1.016771688916563</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9985062761451831</v>
+        <v>1.032401973896437</v>
       </c>
       <c r="D17">
-        <v>1.038849337872074</v>
+        <v>1.05459718605967</v>
       </c>
       <c r="E17">
-        <v>1.018512442687821</v>
+        <v>1.04358312269776</v>
       </c>
       <c r="F17">
-        <v>1.03498904260524</v>
+        <v>1.058538628739017</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050377919607053</v>
+        <v>1.043467498966268</v>
       </c>
       <c r="J17">
-        <v>1.026021977224317</v>
+        <v>1.03860783747844</v>
       </c>
       <c r="K17">
-        <v>1.052208840671132</v>
+        <v>1.057899470699533</v>
       </c>
       <c r="L17">
-        <v>1.032203485061066</v>
+        <v>1.04692274696471</v>
       </c>
       <c r="M17">
-        <v>1.048410192354696</v>
+        <v>1.061827758437845</v>
       </c>
       <c r="N17">
-        <v>1.012500651880671</v>
+        <v>1.016826739877772</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9993888844494299</v>
+        <v>1.032578227348118</v>
       </c>
       <c r="D18">
-        <v>1.039504378921424</v>
+        <v>1.054733583469024</v>
       </c>
       <c r="E18">
-        <v>1.019212848983967</v>
+        <v>1.043735194707252</v>
       </c>
       <c r="F18">
-        <v>1.035735126241087</v>
+        <v>1.058699650280215</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050626018614379</v>
+        <v>1.043506803550386</v>
       </c>
       <c r="J18">
-        <v>1.026474998890565</v>
+        <v>1.038703671897129</v>
       </c>
       <c r="K18">
-        <v>1.052674360012744</v>
+        <v>1.057994350179366</v>
       </c>
       <c r="L18">
-        <v>1.032707984631053</v>
+        <v>1.047032744837317</v>
       </c>
       <c r="M18">
-        <v>1.048964273041601</v>
+        <v>1.061947358349471</v>
       </c>
       <c r="N18">
-        <v>1.01265341113218</v>
+        <v>1.016858853674032</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9996888954081956</v>
+        <v>1.032638343006001</v>
       </c>
       <c r="D19">
-        <v>1.039727114587943</v>
+        <v>1.054780104496823</v>
       </c>
       <c r="E19">
-        <v>1.019451058815177</v>
+        <v>1.043787070134611</v>
       </c>
       <c r="F19">
-        <v>1.035988853778249</v>
+        <v>1.058754576280906</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050710214661043</v>
+        <v>1.043520190270432</v>
       </c>
       <c r="J19">
-        <v>1.026628965049886</v>
+        <v>1.038736352651984</v>
       </c>
       <c r="K19">
-        <v>1.052832555378401</v>
+        <v>1.058026700441679</v>
       </c>
       <c r="L19">
-        <v>1.032879490932617</v>
+        <v>1.0470702601628</v>
       </c>
       <c r="M19">
-        <v>1.049152627881452</v>
+        <v>1.061988146891446</v>
       </c>
       <c r="N19">
-        <v>1.012705327152023</v>
+        <v>1.016869804227098</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9983434801846652</v>
+        <v>1.032369561855987</v>
       </c>
       <c r="D20">
-        <v>1.038728554006334</v>
+        <v>1.054572102985503</v>
       </c>
       <c r="E20">
-        <v>1.01838331677838</v>
+        <v>1.043555161033836</v>
       </c>
       <c r="F20">
-        <v>1.034851487504634</v>
+        <v>1.058509020409439</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050332093460027</v>
+        <v>1.043460262009657</v>
       </c>
       <c r="J20">
-        <v>1.025938407576461</v>
+        <v>1.038590211221699</v>
       </c>
       <c r="K20">
-        <v>1.052122957000482</v>
+        <v>1.057882017780629</v>
       </c>
       <c r="L20">
-        <v>1.032110440468245</v>
+        <v>1.046902517916415</v>
       </c>
       <c r="M20">
-        <v>1.048308000394691</v>
+        <v>1.061805762774002</v>
       </c>
       <c r="N20">
-        <v>1.012472471440063</v>
+        <v>1.016820833064721</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9939029078727001</v>
+        <v>1.031496969562715</v>
       </c>
       <c r="D21">
-        <v>1.035438549988678</v>
+        <v>1.053896782902742</v>
       </c>
       <c r="E21">
-        <v>1.014868677860032</v>
+        <v>1.042802791594007</v>
       </c>
       <c r="F21">
-        <v>1.031106481023996</v>
+        <v>1.057712216452574</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049074700235712</v>
+        <v>1.043264384939676</v>
       </c>
       <c r="J21">
-        <v>1.02365777648427</v>
+        <v>1.038115353452251</v>
       </c>
       <c r="K21">
-        <v>1.049778256687396</v>
+        <v>1.057411565292148</v>
       </c>
       <c r="L21">
-        <v>1.029573729674986</v>
+        <v>1.046357795052854</v>
       </c>
       <c r="M21">
-        <v>1.045521560774458</v>
+        <v>1.061213381169025</v>
       </c>
       <c r="N21">
-        <v>1.011703349057522</v>
+        <v>1.016661665392319</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9910579412964061</v>
+        <v>1.030949297963578</v>
       </c>
       <c r="D22">
-        <v>1.033335518621745</v>
+        <v>1.053472893527528</v>
       </c>
       <c r="E22">
-        <v>1.012624477292062</v>
+        <v>1.042330976578848</v>
       </c>
       <c r="F22">
-        <v>1.028714294931082</v>
+        <v>1.057212412812605</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048262092534053</v>
+        <v>1.043140433036031</v>
       </c>
       <c r="J22">
-        <v>1.022195690134492</v>
+        <v>1.037816999721388</v>
       </c>
       <c r="K22">
-        <v>1.048274307290848</v>
+        <v>1.057115724008204</v>
       </c>
       <c r="L22">
-        <v>1.027949921862043</v>
+        <v>1.046015792448184</v>
       </c>
       <c r="M22">
-        <v>1.043737599529274</v>
+        <v>1.060841371366029</v>
       </c>
       <c r="N22">
-        <v>1.011210212707587</v>
+        <v>1.016561625426567</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9925712709806579</v>
+        <v>1.031239537198069</v>
       </c>
       <c r="D23">
-        <v>1.034453713813899</v>
+        <v>1.053697537159065</v>
       </c>
       <c r="E23">
-        <v>1.013817512361463</v>
+        <v>1.042580977379252</v>
       </c>
       <c r="F23">
-        <v>1.029986082502207</v>
+        <v>1.057477255677552</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048694993583592</v>
+        <v>1.043206217472195</v>
       </c>
       <c r="J23">
-        <v>1.022973499374899</v>
+        <v>1.037975142475043</v>
       </c>
       <c r="K23">
-        <v>1.04907445335609</v>
+        <v>1.057272559178514</v>
       </c>
       <c r="L23">
-        <v>1.028813532389071</v>
+        <v>1.046197047860106</v>
       </c>
       <c r="M23">
-        <v>1.044686411727012</v>
+        <v>1.061038538093791</v>
       </c>
       <c r="N23">
-        <v>1.011472559229122</v>
+        <v>1.01661465501078</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9984170578997639</v>
+        <v>1.032384207137068</v>
       </c>
       <c r="D24">
-        <v>1.03878314236237</v>
+        <v>1.054583436708638</v>
       </c>
       <c r="E24">
-        <v>1.01844167445248</v>
+        <v>1.043567795289892</v>
       </c>
       <c r="F24">
-        <v>1.0349136550137</v>
+        <v>1.058522398740707</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050352807643623</v>
+        <v>1.04346353235405</v>
       </c>
       <c r="J24">
-        <v>1.025976178339468</v>
+        <v>1.038598175700514</v>
       </c>
       <c r="K24">
-        <v>1.052161773950193</v>
+        <v>1.057889904024389</v>
       </c>
       <c r="L24">
-        <v>1.03215249278157</v>
+        <v>1.046911658389897</v>
       </c>
       <c r="M24">
-        <v>1.048354187059444</v>
+        <v>1.061815701520047</v>
       </c>
       <c r="N24">
-        <v>1.012485208108823</v>
+        <v>1.016823502088532</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004982936986496</v>
+        <v>1.033716653152181</v>
       </c>
       <c r="D25">
-        <v>1.043663895521489</v>
+        <v>1.055614496271106</v>
       </c>
       <c r="E25">
-        <v>1.023665683468146</v>
+        <v>1.044718223466604</v>
       </c>
       <c r="F25">
-        <v>1.040476504382589</v>
+        <v>1.059740282637269</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0521839016901</v>
+        <v>1.04375863630167</v>
       </c>
       <c r="J25">
-        <v>1.029343761278107</v>
+        <v>1.039322030372275</v>
       </c>
       <c r="K25">
-        <v>1.055620194192981</v>
+        <v>1.058606029138482</v>
       </c>
       <c r="L25">
-        <v>1.035907401473532</v>
+        <v>1.047742986571177</v>
       </c>
       <c r="M25">
-        <v>1.052477365859896</v>
+        <v>1.062719427493189</v>
       </c>
       <c r="N25">
-        <v>1.013620589307163</v>
+        <v>1.017065993021982</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_192/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_192/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03478265776327</v>
+        <v>1.010057373170058</v>
       </c>
       <c r="D2">
-        <v>1.056439223162817</v>
+        <v>1.047448170050716</v>
       </c>
       <c r="E2">
-        <v>1.045639981478569</v>
+        <v>1.027725684616939</v>
       </c>
       <c r="F2">
-        <v>1.060715653429755</v>
+        <v>1.044796533988045</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04399115998102</v>
+        <v>1.053572912426384</v>
       </c>
       <c r="J2">
-        <v>1.03990001639786</v>
+        <v>1.031941375469546</v>
       </c>
       <c r="K2">
-        <v>1.059176931157509</v>
+        <v>1.058283804851724</v>
       </c>
       <c r="L2">
-        <v>1.048407655049973</v>
+        <v>1.038811811179166</v>
       </c>
       <c r="M2">
-        <v>1.063441677879617</v>
+        <v>1.055665160875259</v>
       </c>
       <c r="N2">
-        <v>1.017259493698236</v>
+        <v>1.014496030259664</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035558520789289</v>
+        <v>1.013653690331464</v>
       </c>
       <c r="D3">
-        <v>1.057039375262869</v>
+        <v>1.050136135770138</v>
       </c>
       <c r="E3">
-        <v>1.046311645168585</v>
+        <v>1.030615418502169</v>
       </c>
       <c r="F3">
-        <v>1.061426131592645</v>
+        <v>1.047869352722006</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044158324048745</v>
+        <v>1.054541528200369</v>
       </c>
       <c r="J3">
-        <v>1.04032003246765</v>
+        <v>1.033778937998692</v>
       </c>
       <c r="K3">
-        <v>1.059591266142113</v>
+        <v>1.060165319035557</v>
       </c>
       <c r="L3">
-        <v>1.04889116404999</v>
+        <v>1.040871000234012</v>
       </c>
       <c r="M3">
-        <v>1.063966898297183</v>
+        <v>1.057924291759414</v>
       </c>
       <c r="N3">
-        <v>1.017400035706474</v>
+        <v>1.01511508137747</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036061400031598</v>
+        <v>1.015941824361382</v>
       </c>
       <c r="D4">
-        <v>1.057428314850099</v>
+        <v>1.051848785393168</v>
       </c>
       <c r="E4">
-        <v>1.046747347663646</v>
+        <v>1.032459485563878</v>
       </c>
       <c r="F4">
-        <v>1.061886896247059</v>
+        <v>1.049829308822817</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044265713028606</v>
+        <v>1.055150280364406</v>
       </c>
       <c r="J4">
-        <v>1.040591963183721</v>
+        <v>1.034946344419996</v>
       </c>
       <c r="K4">
-        <v>1.059859270603514</v>
+        <v>1.061359261372151</v>
       </c>
       <c r="L4">
-        <v>1.049204433836831</v>
+        <v>1.042181322573684</v>
       </c>
       <c r="M4">
-        <v>1.064307111419134</v>
+        <v>1.059361352681593</v>
       </c>
       <c r="N4">
-        <v>1.017490992804391</v>
+        <v>1.015508241759602</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036273010562365</v>
+        <v>1.016894702377342</v>
       </c>
       <c r="D5">
-        <v>1.057591966819859</v>
+        <v>1.05256254678373</v>
       </c>
       <c r="E5">
-        <v>1.046930776142306</v>
+        <v>1.033228719905602</v>
       </c>
       <c r="F5">
-        <v>1.062080847906192</v>
+        <v>1.050646655005544</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044310672421256</v>
+        <v>1.055401954860037</v>
       </c>
       <c r="J5">
-        <v>1.040706317938769</v>
+        <v>1.035432064732429</v>
       </c>
       <c r="K5">
-        <v>1.059971914630743</v>
+        <v>1.061855672066628</v>
       </c>
       <c r="L5">
-        <v>1.049336228344248</v>
+        <v>1.042727011970258</v>
       </c>
       <c r="M5">
-        <v>1.064450221503958</v>
+        <v>1.059959699630772</v>
       </c>
       <c r="N5">
-        <v>1.017529234747424</v>
+        <v>1.015671791521948</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036308552578637</v>
+        <v>1.017054171398377</v>
       </c>
       <c r="D6">
-        <v>1.057619452957134</v>
+        <v>1.052682028789047</v>
       </c>
       <c r="E6">
-        <v>1.04696158972713</v>
+        <v>1.033357529805787</v>
       </c>
       <c r="F6">
-        <v>1.062113427614989</v>
+        <v>1.050783507719098</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044318210314922</v>
+        <v>1.055443965062179</v>
       </c>
       <c r="J6">
-        <v>1.040725520622915</v>
+        <v>1.035513326103467</v>
       </c>
       <c r="K6">
-        <v>1.059990826543411</v>
+        <v>1.061938700844502</v>
       </c>
       <c r="L6">
-        <v>1.049358362798995</v>
+        <v>1.042818335941456</v>
       </c>
       <c r="M6">
-        <v>1.064474255219268</v>
+        <v>1.060059828711455</v>
       </c>
       <c r="N6">
-        <v>1.017535655933386</v>
+        <v>1.015699151602727</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036064226798068</v>
+        <v>1.015954591993924</v>
       </c>
       <c r="D7">
-        <v>1.057430501021356</v>
+        <v>1.051858347027379</v>
       </c>
       <c r="E7">
-        <v>1.046749797628293</v>
+        <v>1.032469787521286</v>
       </c>
       <c r="F7">
-        <v>1.061889486874058</v>
+        <v>1.049840256029151</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044266314513778</v>
+        <v>1.05515365984477</v>
       </c>
       <c r="J7">
-        <v>1.040593491061417</v>
+        <v>1.034952854356277</v>
       </c>
       <c r="K7">
-        <v>1.059860775858943</v>
+        <v>1.061365915994331</v>
       </c>
       <c r="L7">
-        <v>1.049206194506697</v>
+        <v>1.042188634256459</v>
       </c>
       <c r="M7">
-        <v>1.064309023333361</v>
+        <v>1.059369370415943</v>
       </c>
       <c r="N7">
-        <v>1.017491503781665</v>
+        <v>1.015510433886307</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035044688377481</v>
+        <v>1.011280987563306</v>
       </c>
       <c r="D8">
-        <v>1.056641921647652</v>
+        <v>1.048362184634638</v>
       </c>
       <c r="E8">
-        <v>1.045866746182823</v>
+        <v>1.028707721424055</v>
       </c>
       <c r="F8">
-        <v>1.060955546623104</v>
+        <v>1.045840985029422</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044047814313205</v>
+        <v>1.053904029716214</v>
       </c>
       <c r="J8">
-        <v>1.040041930454942</v>
+        <v>1.032566937508663</v>
       </c>
       <c r="K8">
-        <v>1.059316976936046</v>
+        <v>1.058924608833608</v>
       </c>
       <c r="L8">
-        <v>1.048570973931707</v>
+        <v>1.039512377592811</v>
       </c>
       <c r="M8">
-        <v>1.06361910288165</v>
+        <v>1.056433849493125</v>
       </c>
       <c r="N8">
-        <v>1.017306986705752</v>
+        <v>1.014706798777287</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033254681891243</v>
+        <v>1.00273497377137</v>
       </c>
       <c r="D9">
-        <v>1.055257041265797</v>
+        <v>1.04199080499529</v>
       </c>
       <c r="E9">
-        <v>1.044319145763123</v>
+        <v>1.0218734731675</v>
       </c>
       <c r="F9">
-        <v>1.059317872053371</v>
+        <v>1.038568556505615</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043656872489259</v>
+        <v>1.051561011615366</v>
       </c>
       <c r="J9">
-        <v>1.039071236424284</v>
+        <v>1.028191521355597</v>
       </c>
       <c r="K9">
-        <v>1.058358053761258</v>
+        <v>1.054437462181034</v>
       </c>
       <c r="L9">
-        <v>1.047454822118665</v>
+        <v>1.034621363963664</v>
       </c>
       <c r="M9">
-        <v>1.062406214236996</v>
+        <v>1.051065411593172</v>
       </c>
       <c r="N9">
-        <v>1.016981996322435</v>
+        <v>1.013232160358905</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032065865491123</v>
+        <v>0.9968106805641015</v>
       </c>
       <c r="D10">
-        <v>1.054337073046282</v>
+        <v>1.037591897570626</v>
       </c>
       <c r="E10">
-        <v>1.043293217352586</v>
+        <v>1.017168496404662</v>
       </c>
       <c r="F10">
-        <v>1.058231634260733</v>
+        <v>1.033557242913945</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043392316793262</v>
+        <v>1.049899654451255</v>
       </c>
       <c r="J10">
-        <v>1.03842501313363</v>
+        <v>1.025151410332508</v>
       </c>
       <c r="K10">
-        <v>1.057718409814591</v>
+        <v>1.051314043937112</v>
       </c>
       <c r="L10">
-        <v>1.046712958911728</v>
+        <v>1.031234536219972</v>
       </c>
       <c r="M10">
-        <v>1.061599638035473</v>
+        <v>1.047345938759277</v>
       </c>
       <c r="N10">
-        <v>1.016765468113919</v>
+        <v>1.01220707891129</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031552192066767</v>
+        <v>0.994187267915347</v>
       </c>
       <c r="D11">
-        <v>1.05393952292968</v>
+        <v>1.035648960850434</v>
       </c>
       <c r="E11">
-        <v>1.042850382404515</v>
+        <v>1.01509331216569</v>
       </c>
       <c r="F11">
-        <v>1.057762625164856</v>
+        <v>1.031345891163873</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043276840268712</v>
+        <v>1.049155631373155</v>
       </c>
       <c r="J11">
-        <v>1.038145423535725</v>
+        <v>1.023803878752586</v>
       </c>
       <c r="K11">
-        <v>1.057441371352355</v>
+        <v>1.049928511693895</v>
       </c>
       <c r="L11">
-        <v>1.04639227485631</v>
+        <v>1.02973609555136</v>
       </c>
       <c r="M11">
-        <v>1.061250882629225</v>
+        <v>1.045699928952738</v>
       </c>
       <c r="N11">
-        <v>1.016671746620976</v>
+        <v>1.011752624511033</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031361556952013</v>
+        <v>0.9932036905424811</v>
       </c>
       <c r="D12">
-        <v>1.053791977844804</v>
+        <v>1.034921327614731</v>
       </c>
       <c r="E12">
-        <v>1.042686106111955</v>
+        <v>1.014316570628271</v>
       </c>
       <c r="F12">
-        <v>1.057588617819391</v>
+        <v>1.030518028680435</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043233809454741</v>
+        <v>1.048875468531975</v>
       </c>
       <c r="J12">
-        <v>1.038041607374687</v>
+        <v>1.023298493747853</v>
       </c>
       <c r="K12">
-        <v>1.057338458299776</v>
+        <v>1.049408736990205</v>
       </c>
       <c r="L12">
-        <v>1.046273242428553</v>
+        <v>1.029174533302695</v>
       </c>
       <c r="M12">
-        <v>1.061121415929637</v>
+        <v>1.045083011396708</v>
       </c>
       <c r="N12">
-        <v>1.016636940302935</v>
+        <v>1.011582172996772</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031402441283992</v>
+        <v>0.9934150906183742</v>
       </c>
       <c r="D13">
-        <v>1.053823621177185</v>
+        <v>1.035077679593346</v>
       </c>
       <c r="E13">
-        <v>1.042721334291482</v>
+        <v>1.014483456326265</v>
       </c>
       <c r="F13">
-        <v>1.057625933738641</v>
+        <v>1.030695904750991</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043243045927514</v>
+        <v>1.048935737962424</v>
       </c>
       <c r="J13">
-        <v>1.038063874648126</v>
+        <v>1.023407122974354</v>
       </c>
       <c r="K13">
-        <v>1.057360533863142</v>
+        <v>1.049520465025227</v>
       </c>
       <c r="L13">
-        <v>1.04629877146506</v>
+        <v>1.029295218395944</v>
       </c>
       <c r="M13">
-        <v>1.061149183480702</v>
+        <v>1.045215595078526</v>
       </c>
       <c r="N13">
-        <v>1.01664440609581</v>
+        <v>1.011618810887901</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031536430709335</v>
+        <v>0.9941061535688611</v>
       </c>
       <c r="D14">
-        <v>1.053927324290539</v>
+        <v>1.035588936847492</v>
       </c>
       <c r="E14">
-        <v>1.042836798931055</v>
+        <v>1.015029228731619</v>
       </c>
       <c r="F14">
-        <v>1.057748237498226</v>
+        <v>1.031277593196548</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043273286132125</v>
+        <v>1.049132551113104</v>
       </c>
       <c r="J14">
-        <v>1.038136841319713</v>
+        <v>1.023762203475939</v>
       </c>
       <c r="K14">
-        <v>1.057432864693917</v>
+        <v>1.049885652469749</v>
       </c>
       <c r="L14">
-        <v>1.046382433877525</v>
+        <v>1.029689779187674</v>
       </c>
       <c r="M14">
-        <v>1.06124017929838</v>
+        <v>1.045649048014499</v>
       </c>
       <c r="N14">
-        <v>1.016668869394163</v>
+        <v>1.01173856886802</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031619008082278</v>
+        <v>0.9945307191403912</v>
       </c>
       <c r="D15">
-        <v>1.05399123553013</v>
+        <v>1.035903145944773</v>
       </c>
       <c r="E15">
-        <v>1.042907968706097</v>
+        <v>1.0153647047806</v>
       </c>
       <c r="F15">
-        <v>1.057823619918734</v>
+        <v>1.031635126044679</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043291899900367</v>
+        <v>1.049253307729958</v>
       </c>
       <c r="J15">
-        <v>1.038181803288724</v>
+        <v>1.02398033206491</v>
       </c>
       <c r="K15">
-        <v>1.057477429011265</v>
+        <v>1.05010997236928</v>
       </c>
       <c r="L15">
-        <v>1.046433992218718</v>
+        <v>1.029932216423667</v>
       </c>
       <c r="M15">
-        <v>1.061296255028842</v>
+        <v>1.045915375887705</v>
       </c>
       <c r="N15">
-        <v>1.016683942852307</v>
+        <v>1.011812135746983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03209997948226</v>
+        <v>0.9969835299169001</v>
       </c>
       <c r="D16">
-        <v>1.054363474228165</v>
+        <v>1.037720022281215</v>
       </c>
       <c r="E16">
-        <v>1.043322636506314</v>
+        <v>1.017305401535615</v>
       </c>
       <c r="F16">
-        <v>1.058262789261596</v>
+        <v>1.033703109723282</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043399961233795</v>
+        <v>1.049948505415815</v>
       </c>
       <c r="J16">
-        <v>1.038443573526719</v>
+        <v>1.025240170858846</v>
       </c>
       <c r="K16">
-        <v>1.057736794644069</v>
+        <v>1.05140528708401</v>
       </c>
       <c r="L16">
-        <v>1.046734253333594</v>
+        <v>1.031333295179515</v>
       </c>
       <c r="M16">
-        <v>1.061622794421574</v>
+        <v>1.047454416061464</v>
       </c>
       <c r="N16">
-        <v>1.016771688916563</v>
+        <v>1.012237011751618</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032401973896437</v>
+        <v>0.9985062761451824</v>
       </c>
       <c r="D17">
-        <v>1.05459718605967</v>
+        <v>1.038849337872073</v>
       </c>
       <c r="E17">
-        <v>1.04358312269776</v>
+        <v>1.018512442687821</v>
       </c>
       <c r="F17">
-        <v>1.058538628739017</v>
+        <v>1.034989042605239</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043467498966268</v>
+        <v>1.050377919607052</v>
       </c>
       <c r="J17">
-        <v>1.03860783747844</v>
+        <v>1.026021977224316</v>
       </c>
       <c r="K17">
-        <v>1.057899470699533</v>
+        <v>1.052208840671131</v>
       </c>
       <c r="L17">
-        <v>1.04692274696471</v>
+        <v>1.032203485061066</v>
       </c>
       <c r="M17">
-        <v>1.061827758437845</v>
+        <v>1.048410192354696</v>
       </c>
       <c r="N17">
-        <v>1.016826739877772</v>
+        <v>1.012500651880671</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032578227348118</v>
+        <v>0.9993888844494295</v>
       </c>
       <c r="D18">
-        <v>1.054733583469024</v>
+        <v>1.039504378921424</v>
       </c>
       <c r="E18">
-        <v>1.043735194707252</v>
+        <v>1.019212848983967</v>
       </c>
       <c r="F18">
-        <v>1.058699650280215</v>
+        <v>1.035735126241086</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043506803550386</v>
+        <v>1.050626018614378</v>
       </c>
       <c r="J18">
-        <v>1.038703671897129</v>
+        <v>1.026474998890565</v>
       </c>
       <c r="K18">
-        <v>1.057994350179366</v>
+        <v>1.052674360012744</v>
       </c>
       <c r="L18">
-        <v>1.047032744837317</v>
+        <v>1.032707984631053</v>
       </c>
       <c r="M18">
-        <v>1.061947358349471</v>
+        <v>1.048964273041601</v>
       </c>
       <c r="N18">
-        <v>1.016858853674032</v>
+        <v>1.01265341113218</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032638343006001</v>
+        <v>0.9996888954081951</v>
       </c>
       <c r="D19">
-        <v>1.054780104496823</v>
+        <v>1.039727114587943</v>
       </c>
       <c r="E19">
-        <v>1.043787070134611</v>
+        <v>1.019451058815176</v>
       </c>
       <c r="F19">
-        <v>1.058754576280906</v>
+        <v>1.035988853778249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043520190270432</v>
+        <v>1.050710214661043</v>
       </c>
       <c r="J19">
-        <v>1.038736352651984</v>
+        <v>1.026628965049886</v>
       </c>
       <c r="K19">
-        <v>1.058026700441679</v>
+        <v>1.0528325553784</v>
       </c>
       <c r="L19">
-        <v>1.0470702601628</v>
+        <v>1.032879490932616</v>
       </c>
       <c r="M19">
-        <v>1.061988146891446</v>
+        <v>1.049152627881452</v>
       </c>
       <c r="N19">
-        <v>1.016869804227098</v>
+        <v>1.012705327152023</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032369561855987</v>
+        <v>0.9983434801846652</v>
       </c>
       <c r="D20">
-        <v>1.054572102985503</v>
+        <v>1.038728554006334</v>
       </c>
       <c r="E20">
-        <v>1.043555161033836</v>
+        <v>1.01838331677838</v>
       </c>
       <c r="F20">
-        <v>1.058509020409439</v>
+        <v>1.034851487504634</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043460262009657</v>
+        <v>1.050332093460027</v>
       </c>
       <c r="J20">
-        <v>1.038590211221699</v>
+        <v>1.025938407576461</v>
       </c>
       <c r="K20">
-        <v>1.057882017780629</v>
+        <v>1.052122957000482</v>
       </c>
       <c r="L20">
-        <v>1.046902517916415</v>
+        <v>1.032110440468245</v>
       </c>
       <c r="M20">
-        <v>1.061805762774002</v>
+        <v>1.048308000394691</v>
       </c>
       <c r="N20">
-        <v>1.016820833064721</v>
+        <v>1.012472471440063</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031496969562715</v>
+        <v>0.9939029078726995</v>
       </c>
       <c r="D21">
-        <v>1.053896782902742</v>
+        <v>1.035438549988678</v>
       </c>
       <c r="E21">
-        <v>1.042802791594007</v>
+        <v>1.014868677860031</v>
       </c>
       <c r="F21">
-        <v>1.057712216452574</v>
+        <v>1.031106481023995</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043264384939676</v>
+        <v>1.049074700235712</v>
       </c>
       <c r="J21">
-        <v>1.038115353452251</v>
+        <v>1.02365777648427</v>
       </c>
       <c r="K21">
-        <v>1.057411565292148</v>
+        <v>1.049778256687395</v>
       </c>
       <c r="L21">
-        <v>1.046357795052854</v>
+        <v>1.029573729674986</v>
       </c>
       <c r="M21">
-        <v>1.061213381169025</v>
+        <v>1.045521560774457</v>
       </c>
       <c r="N21">
-        <v>1.016661665392319</v>
+        <v>1.011703349057522</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030949297963578</v>
+        <v>0.991057941296406</v>
       </c>
       <c r="D22">
-        <v>1.053472893527528</v>
+        <v>1.033335518621745</v>
       </c>
       <c r="E22">
-        <v>1.042330976578848</v>
+        <v>1.012624477292062</v>
       </c>
       <c r="F22">
-        <v>1.057212412812605</v>
+        <v>1.028714294931081</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043140433036031</v>
+        <v>1.048262092534053</v>
       </c>
       <c r="J22">
-        <v>1.037816999721388</v>
+        <v>1.022195690134492</v>
       </c>
       <c r="K22">
-        <v>1.057115724008204</v>
+        <v>1.048274307290848</v>
       </c>
       <c r="L22">
-        <v>1.046015792448184</v>
+        <v>1.027949921862043</v>
       </c>
       <c r="M22">
-        <v>1.060841371366029</v>
+        <v>1.043737599529273</v>
       </c>
       <c r="N22">
-        <v>1.016561625426567</v>
+        <v>1.011210212707587</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031239537198069</v>
+        <v>0.9925712709806578</v>
       </c>
       <c r="D23">
-        <v>1.053697537159065</v>
+        <v>1.034453713813899</v>
       </c>
       <c r="E23">
-        <v>1.042580977379252</v>
+        <v>1.013817512361463</v>
       </c>
       <c r="F23">
-        <v>1.057477255677552</v>
+        <v>1.029986082502207</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043206217472195</v>
+        <v>1.048694993583592</v>
       </c>
       <c r="J23">
-        <v>1.037975142475043</v>
+        <v>1.022973499374899</v>
       </c>
       <c r="K23">
-        <v>1.057272559178514</v>
+        <v>1.04907445335609</v>
       </c>
       <c r="L23">
-        <v>1.046197047860106</v>
+        <v>1.028813532389071</v>
       </c>
       <c r="M23">
-        <v>1.061038538093791</v>
+        <v>1.044686411727013</v>
       </c>
       <c r="N23">
-        <v>1.01661465501078</v>
+        <v>1.011472559229122</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032384207137068</v>
+        <v>0.9984170578997639</v>
       </c>
       <c r="D24">
-        <v>1.054583436708638</v>
+        <v>1.03878314236237</v>
       </c>
       <c r="E24">
-        <v>1.043567795289892</v>
+        <v>1.018441674452481</v>
       </c>
       <c r="F24">
-        <v>1.058522398740707</v>
+        <v>1.034913655013701</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04346353235405</v>
+        <v>1.050352807643624</v>
       </c>
       <c r="J24">
-        <v>1.038598175700514</v>
+        <v>1.025976178339468</v>
       </c>
       <c r="K24">
-        <v>1.057889904024389</v>
+        <v>1.052161773950193</v>
       </c>
       <c r="L24">
-        <v>1.046911658389897</v>
+        <v>1.032152492781571</v>
       </c>
       <c r="M24">
-        <v>1.061815701520047</v>
+        <v>1.048354187059445</v>
       </c>
       <c r="N24">
-        <v>1.016823502088532</v>
+        <v>1.012485208108823</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033716653152181</v>
+        <v>1.004982936986496</v>
       </c>
       <c r="D25">
-        <v>1.055614496271106</v>
+        <v>1.043663895521489</v>
       </c>
       <c r="E25">
-        <v>1.044718223466604</v>
+        <v>1.023665683468146</v>
       </c>
       <c r="F25">
-        <v>1.059740282637269</v>
+        <v>1.040476504382589</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04375863630167</v>
+        <v>1.0521839016901</v>
       </c>
       <c r="J25">
-        <v>1.039322030372275</v>
+        <v>1.029343761278106</v>
       </c>
       <c r="K25">
-        <v>1.058606029138482</v>
+        <v>1.05562019419298</v>
       </c>
       <c r="L25">
-        <v>1.047742986571177</v>
+        <v>1.035907401473532</v>
       </c>
       <c r="M25">
-        <v>1.062719427493189</v>
+        <v>1.052477365859895</v>
       </c>
       <c r="N25">
-        <v>1.017065993021982</v>
+        <v>1.013620589307163</v>
       </c>
     </row>
   </sheetData>
